--- a/ilho(1호선 끝).xlsx
+++ b/ilho(1호선 끝).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2005-009\Desktop\최종 팀 프로젝트\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9400B18-AD59-4E6D-BA38-BC001904CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03E8C7-63F1-4C30-AC7F-40DA242F3A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>역명</t>
   </si>
@@ -146,6 +146,114 @@
   </si>
   <si>
     <t>소요산</t>
+  </si>
+  <si>
+    <t>독산</t>
+  </si>
+  <si>
+    <t>금천구청</t>
+  </si>
+  <si>
+    <t>광명</t>
+  </si>
+  <si>
+    <t>석수</t>
+  </si>
+  <si>
+    <t>관악</t>
+  </si>
+  <si>
+    <t>안양</t>
+  </si>
+  <si>
+    <t>명학</t>
+  </si>
+  <si>
+    <t>금정</t>
+  </si>
+  <si>
+    <t>군포</t>
+  </si>
+  <si>
+    <t>당정</t>
+  </si>
+  <si>
+    <t>의왕</t>
+  </si>
+  <si>
+    <t>성균관대</t>
+  </si>
+  <si>
+    <t>화서</t>
+  </si>
+  <si>
+    <t>수원</t>
+  </si>
+  <si>
+    <t>세류</t>
+  </si>
+  <si>
+    <t>병점</t>
+  </si>
+  <si>
+    <t>서동탄</t>
+  </si>
+  <si>
+    <t>세마</t>
+  </si>
+  <si>
+    <t>오산대</t>
+  </si>
+  <si>
+    <t>오산</t>
+  </si>
+  <si>
+    <t>진위</t>
+  </si>
+  <si>
+    <t>송탄</t>
+  </si>
+  <si>
+    <t>서정리</t>
+  </si>
+  <si>
+    <t>지제</t>
+  </si>
+  <si>
+    <t>평택</t>
+  </si>
+  <si>
+    <t>성환</t>
+  </si>
+  <si>
+    <t>직산</t>
+  </si>
+  <si>
+    <t>두정</t>
+  </si>
+  <si>
+    <t>천안</t>
+  </si>
+  <si>
+    <t>봉명</t>
+  </si>
+  <si>
+    <t>쌍용</t>
+  </si>
+  <si>
+    <t>아산</t>
+  </si>
+  <si>
+    <t>배방</t>
+  </si>
+  <si>
+    <t>온양온천</t>
+  </si>
+  <si>
+    <t>신창</t>
+  </si>
+  <si>
+    <t>충청남도 천안시 서북구 대흥로 239</t>
   </si>
 </sst>
 </file>
@@ -554,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1119,6 +1227,496 @@
         <v>127.0612869</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>37.469321600000001</v>
+      </c>
+      <c r="D41">
+        <v>126.8883347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>37.455787800000003</v>
+      </c>
+      <c r="D42">
+        <v>126.8942911287028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>37.416379999999997</v>
+      </c>
+      <c r="D43">
+        <v>126.8846978</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>37.4143446</v>
+      </c>
+      <c r="D44">
+        <v>126.9190753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>37.415330699999998</v>
+      </c>
+      <c r="D45">
+        <v>126.91218430000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>37.4016302</v>
+      </c>
+      <c r="D46">
+        <v>126.92288259999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>37.400814400000002</v>
+      </c>
+      <c r="D47">
+        <v>126.9226706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>37.371925699999998</v>
+      </c>
+      <c r="D48">
+        <v>126.9435795140475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>37.353574700000003</v>
+      </c>
+      <c r="D49">
+        <v>126.9484606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>37.343431600000002</v>
+      </c>
+      <c r="D50">
+        <v>126.94836069999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>37.321055999999999</v>
+      </c>
+      <c r="D51">
+        <v>126.9484224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>37.300185650000003</v>
+      </c>
+      <c r="D52">
+        <v>126.97225051795679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>37.284931499999999</v>
+      </c>
+      <c r="D53">
+        <v>126.9892480698124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>37.265809699999998</v>
+      </c>
+      <c r="D54">
+        <v>126.9999102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>37.258770900000002</v>
+      </c>
+      <c r="D55">
+        <v>127.0122188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>37.207087455135998</v>
+      </c>
+      <c r="D56">
+        <v>127.03348193524999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>37.196048500000003</v>
+      </c>
+      <c r="D57">
+        <v>127.0476929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>37.186908474281999</v>
+      </c>
+      <c r="D58">
+        <v>127.04295633349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>37.158354299999999</v>
+      </c>
+      <c r="D59">
+        <v>127.06460850000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>37.1464371</v>
+      </c>
+      <c r="D60">
+        <v>127.0668438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>37.084024100000001</v>
+      </c>
+      <c r="D61">
+        <v>127.062099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>37.074592099999997</v>
+      </c>
+      <c r="D62">
+        <v>127.0554755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>37.059035299999998</v>
+      </c>
+      <c r="D63">
+        <v>127.05367699999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>37.065891700000002</v>
+      </c>
+      <c r="D64">
+        <v>127.06384370000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>36.991227600000002</v>
+      </c>
+      <c r="D65">
+        <v>127.0856957</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>36.910010499999999</v>
+      </c>
+      <c r="D66">
+        <v>127.1284926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>36.870737400000003</v>
+      </c>
+      <c r="D67">
+        <v>127.1439118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>36.833652100000002</v>
+      </c>
+      <c r="D68">
+        <v>127.1489375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>36.801295799999998</v>
+      </c>
+      <c r="D70">
+        <v>127.135865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>36.793718300000002</v>
+      </c>
+      <c r="D71">
+        <v>127.1212913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>36.792172450048</v>
+      </c>
+      <c r="D72">
+        <v>127.10387249874999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>36.777699499999997</v>
+      </c>
+      <c r="D73">
+        <v>127.0529902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>36.7805526</v>
+      </c>
+      <c r="D74">
+        <v>127.0031561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>36.769788499999997</v>
+      </c>
+      <c r="D75">
+        <v>126.9518229</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
